--- a/Datos/Database by set/Set with text box/Xlsx sets/Worldwake Tokens (TWWK).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Worldwake Tokens (TWWK).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A21"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,140 +444,42 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Construct</t>
+          <t>('Construct', ['Token Artifact Creature — Construct', 'Trample', '6/12'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Token Artifact Creature — Construct</t>
+          <t>('Dragon', ['Token Creature — Dragon', 'Flying', '5/5'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Trample</t>
+          <t>('Elephant', ['Token Creature — Elephant', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>6/12</t>
+          <t>('Ogre', ['Token Creature — Ogre', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Dragon</t>
+          <t>('Plant', ['Token Creature — Plant', '0/1'])</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Token Creature — Dragon</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Flying</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>5/5</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Elephant</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Token Creature — Elephant</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>3/3</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Ogre</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Token Creature — Ogre</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>3/3</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Plant</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Token Creature — Plant</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Soldier Ally</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Token Creature — Soldier Ally</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>1/1</t>
+          <t>('Soldier Ally', ['Token Creature — Soldier Ally', '1/1'])</t>
         </is>
       </c>
     </row>
